--- a/500all/speech_level/speeches_CHRG-114hhrg20913.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20913.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock, for holding this hearing to review the SBIR and STTR programs, as well as to examine national efforts to support commercialization of federally funded research and development.    Those of you who follow this Committee know that I am always focused on finding better ways to promote commercialization of research, especially the great research funded by the American taxpayers at our universities and national labs.    This hearing is an important step in the reauthorization of the SBIR and STTR commercialization programs, which our subcommittee has jurisdiction over.    In the United States, where small businesses create 55 percent of all jobs, the success of the small business enterprise is key to economic growth.    For almost 40 years, the SBIR program has been funding small business innovation across all sectors of our economy. There are many prominent success stories from SBIR grants. A recent Air Force review of Phase II winners between 2000 and 2013 found that 58 percent of them had sales in excess of $1 million.    Importantly, many of the innovators who create these small businesses are educated and trained in our Nation's great research institutions, with support from federal research dollars. And some even directly commercialize research funded by federal dollars. The Federal R&amp;D enterprise is truly an ecosystem from basic research to commercialization.    Unlike any other program that I'm aware of, SBIR and STTR are funded using a percentage of participating agencies' extramural research and development budgets. That percentage has increased by 30 percent since 2011, even as the larger budgets have remained flat.    While the SBIR program has great value, we must look at it in the context of overall agency budgets and missions. Increasing the set-aside for SBIR and STTR as much as has been proposed by some could come at the expense of support for other critical research programs.    Perhaps my biggest concern is harm done to the pipeline of STEM talent and innovators by increasingly lower research funding levels. This is a difficult choice in tough budget times because both research and commercialization activities are highly valuable investments.    We must also look hard at assessments of the SBIR program and consider ways to make it more efficient and help the program better achieve its goals, and this hearing is a good opportunity to talk about other ways to improve the commercialization of federally funded research, including the very successful Innovation Corps program started at NSF in 2011 and now expanding to other agencies, as well as the NIH's Proof of Concept pilot program. I-Corps is essentially an entrepreneurial education program. The I-Corps Node program provides this education and other support for innovators at our research universities, creating a true interconnected, national innovation network.    I am pleased that Ms. Garton is joining us today, and I look forward to her testimony regarding Georgia Tech's I-Corps Node program and the challenges innovators face in seeking early stage funding.    In the five years since the I-Corps program has been running, it has clearly demonstrated its value in improving tech transfer and commercialization, and we are beginning to see that it makes the SBIR program more efficient as well. Although it takes time to fully realize success in commercialization, the early returns show I-Corps-trained teams having more success than comparable teams without this training. I think the time has come to talk about having some kind of I-Corps program at every agency with an SBIR program, as the two truly go hand in hand.    Finally, I want to mention language that I put in the 2011 SBIR Reauthorization bill which allowed for an NIH Proof of Concept pilot program, utilizing a small portion of the funds from the STTR set-aside, to give grants to researchers at a pre-SBIR stage. This could be called SBIR phase zero.    Many university researchers are hesitant to start a company, which often means leaving their university, so they're hesitant without having confidence that the idea can work out. The Proof of Concept pilot has led to programs at NIH such as the NIH Centers for Accelerated Innovations and the Research Evaluation and Commercialization Hubs, or REACH, programs. I believe programs like these can be an important part of the innovation ecosystem and I look forward to an update on the pilot from Dr. Lauer.    I know the agencies here today are exploring many other aspects of early stage commercialization, including how to coordinate these efforts better with the SBIR program. I look forward to this broader discussion about commercializing federally funded research. I also look forward to your testimony about how you've implemented new requirements and flexibilities in the SBIR program since the 2011 reauthorization, and what our Committee should consider as we take up the next reauthorization.    I would like to ask unanimous consent to enter into the record the Administration's Principles for SBIR/STTR Reauthorization and the letter dated May 10, 2016, from a coalition of science organizations and universities.    Chairwoman Comstock. Thank you----</t>
   </si>
   <si>
@@ -67,45 +64,27 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chairwoman, and I appreciate both your comments and the comments by the Ranking Member.    The Small Business Innovation Research Act, or SBIR, was signed into law by President Reagan in 1982 to help spur innovation and increase small business participation in federal research and development activity.    Since then, more than 100,000 small businesses in the United States have received SBIR grants to convert taxpayer-supported basic research discoveries into commercial technological innovation.    The Small Business Technology Transfer program, or STTR, was approved by Congress in 1992. STTR's unique feature is its requirement for a small business to collaborate with a nonprofit research institution in order to bridge the gap between basic science and commercialization of resulting innovations.    Both SBIR and STTR are funded through a tax on federal agencies' research budgets. The SBIR tax on research began at 0.2 percent; that tax is now three percent, or 15 times higher. Twelve federal agencies--those with annual external research budgets of $100 million or more--are currently subject to the SBIR tax.    The five federal departments and agencies with annual external research budgets of more than $1 billion are also taxed to provide funding for the STTR program. That tax is an additional .45 percent on the three research agencies represented here today: DOE, NSF, and NIH. These basic research taxes currently amount to approximately $2.5 billion each year for commercialization grants to small businesses.    Grant recipients run the gamut. Although about one-quarter of the companies are first-time recipients, most participating small businesses have received multiple SBIR grants.    Some former recipients of SBIR assistance have even become very large international corporations, such as Qualcomm, Sonicare, and Symantec.    SBIR and STTR companies have created parts for NASA's Mars Rover, equipped our military men and women with key war-fighting innovations, and generated a long list of lifesaving medicines and health care treatments.    SBIR and STTR recipients have thousands of new patents and created thousands of new jobs, many in new areas of technology.    In the leading-edge field of nanoscience, we're learning that tiny particles can have very big effects. SBIR support enabled Applied Nanotech of Austin, TX, to become a world leader in nanotechnology breakthroughs: inventing cheaper, more efficient solar energy cells, new materials for blast-resistant structures and equipment, and low-cost, high-performance metallic inks and pastes for ink-jet-printed electronics.    Xeris Pharmaceuticals, also Austin-based, has used SBIR grants to develop new delivery systems for injectable medicines that are not soluble with water. This includes a system for injectable glucagon to treat congenital hyperinsulinism that affects thousands of infants and young children.    The current legislative authorization for the SBIR and STTR programs doesn't expire until September of next year. The Science Committee is holding its first hearing today in order to start the process of timely oversight and reauthorization consideration.    There are still ways to improve SBIR and STTR and assure taxpayers are getting the greatest return for the investments of their hard-earned dollars. Instances of fraud and abuse continue to be problematic.    Objective measurement of results across all participating federal agencies is needed. It is also important to examine if the current funding level--the taxes on basic research--are hurting fundamental scientific research. Any increases would necessarily reduce our Nation's primary investments in basic research at a time when U.S. global leadership is threatened. As the members of this Committee know, China is set to overtake the U.S. in R&amp;D spending as soon as 2020.    Madam Chairwoman, I look forward to hearing from our panel of witnesses today, who are all experts in their own right, and who represent federal agencies and research universities, about these and other issues.    Thank you, and yield back.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, and good morning. I'd like to thank you, Madam Chair, for holding this hearing today to examine the Small Business Innovation Research program and the Small Business Technology Transfer programs and related technology transfer issues, and I'd like also to thank the Chairman of the full Committee for ensuring that Science Committee members have the opportunity to weigh in on reauthorization of these important programs.    The United States has long been a nation that nurtures innovation. The number of small businesses has grown by 49 percent since 1982, and today's 28 million small businesses make up 54 percent of all U.S. sales. The invigorating startup culture we have seen for the last decade and a half has contributed to this growth and has given us extraordinary economic and social benefits.    The first SBIR program was at the National Science Foundation and was started in the mid-1970s to support small high-tech firms' ability to compete for federal R&amp;D grants. This program grew to a government-wide program in 1982. Today the program receives approximately $2.2 billion from funds set-aside from the federal research and development budget. The SBIR and STTR programs are funded from a set-aside from agencies' extramural R&amp;D budgets. They are the only R&amp;D programs that are funded in this market. While stability and continuity in the programs are important goals, the SBIR and STTR programs are just one tool in a much larger R&amp;D toolbox that agencies draw from to meet their missions.    The SBIR and STTR programs were last authorized from fiscal years 2012 through 2017. During that time, the programs grew by 30 percent. In addition, the 2011 reauthorization introduced many new requirements and flexibilities for the agencies.    Before we reauthorize the programs, it is the responsibility of this Committee to review how the new policies introduced in the last reauthorization have been implemented, how well the programs are achieving their goals and how they might continue to improve, and how the programs fit into the larger federal research and development enterprise. Our job on the Science Committee is to help ensure the health and sustainability of this entire enterprise.    One particular issue I hope our witnesses can address is women and minority participation. According to the National Academies, agencies are doing well in all of the main goals of the SBIR and STTR programs except for participation in innovation by economically and socially disadvantaged groups. I have spent my entire political career working on increasing female and minority participation in STEM starting in the early 1970s, I might add. I'm glad to say that we are not doing much better--I'm sad to say that we are not doing much better today than when I started.    SBIR cannot solve disparities created earlier in the pipeline. However, we know that women and minorities receive less encouragement and support to become entrepreneurs. I'd like to hear from our witnesses today how agencies can help address this disparity through the SBIR and STTR programs.    I thank the witnesses for being here today and I look forward to their comments and recommendations for future legislation.    Thank you, Madam Chair, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Khargonekar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Khargonekar. Good morning, Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, Ranking Member Johnson, Committee members. Thank you for this opportunity to testify regarding the Small Business Innovation Research and Small Business Technology Transfer programs at the National Science Foundation. My name is Pramod Khargonekar. I am the Assistant Director for Engineering at National Science Foundation. The SBIR/STTR program at NSF is managed within the Division of Industrial Innovation and Partnerships and the Directorate for Engineering.    While NSF's primary mission is to advance the frontiers of science and engineering through basic research, the SBIR/STTR program is an integral part of the NSF strategy to stimulate innovation and address societal needs. This is achieved through the commercialization of results of fundamental research. We fund small businesses at very early stages when the technology risk is high and before the private sector is normally willing to invest.    Since the NSF is not the ultimate customer of resulting innovations, the NSF SBIR/STTR research topics are designed to address existing and emerging needs of the U.S. marketplace and the Nation as a whole. For example, NSF SBIR research brought about Symantec, which is now a global leader in cybersecurity. It was founded in 1982 by Gary Hendrix, who was funded by an NSF SBIR grant. Qualcomm, a world leader in wireless communications and computing technologies, also received NSF SBIR funding during the 1980s in its early years as a small business. Its co-founder, Irwin Jacobs, recently stated, and I quote, ``With one of the grants, we developed some of the first chips we did at Qualcomm, if not the first. Of course, making chips for cell phones is now about 2/3 of our revenue today, and that was the base.''    In the last four decades, NSF has been continuously innovating and exploring new approaches to stimulating small business-based technological innovations and commercialization. In 1998, NSF SBIR introduced a new supplemental program called Phase IIB. It is a platform to stimulate NSF-funded active Phase II grantees to attract additional private-sector funding for further technology commercialization.    In addition to providing funding in varying stages, we also assist awardees by providing them with experiential entrepreneurial education based in part on the NSF Innovation Corps, or I-Corps program. I-Corps helps entrepreneurs and their small businesses understand market needs and customers, thus increasing their chances of successful commercialization of new technologies.    Another program closely related to I-Corps is the Accelerating Innovation Research, or AIR. We frequently find that NSF-funded researchers apply for AIR grants first before pursuing I-Corps training. We are seeing strong interactions between these programs and our SBIR/STTR program where researchers with NSF-funded fundamental research advance to AIR first, then go through I-Corps, and then pursue SBIR/STTR funding. This pathway is getting strong and working extremely well.    We also many other translational research programs which complement our significant investments in fundamental scientific and engineering research.    SBIR and STTR are vital components of NSF's agenda to enable commercialization of technology stemming from basic research. We at NSF take great pride in having pioneered the SBIR program concept and continue to innovate to expand its impact.    Recently, there have been proposals to increase the set-aside percentages for SBIR/STTR whose ultimate effect will be to apportion a greater amount of the NSF research budget to the SBIR/STTR program.    NSF is the lead agency for the support of basic research at our Nation's universities. Our budget for basic research has been flat during this decade, and any further diminution will reduce the very discoveries that our country needs to remain an economic powerhouse and a global leader. We do support future growth in SBIR/STTR programs but urge that such growth be enabled through an overall budget increase for NSF.    NSF strongly supports a permanent reauthorization of SBIR/STTR and recommends that the annual set-aside percentages for the programs be maintained at fiscal year 2017 levels.    Lastly, I should note that NSF participated in interagency process to detail principles all the SBIR/STTR agencies can support for reauthorization, which include permanent reauthorization, growth in program through overall extramural research growth, and maintaining flexibility.    Madam Chairwoman, this concludes my testimony. On behalf of the National Science Foundation, the SBIR/STTR program, and our awardees, I want to thank you for this opportunity to highlight a program that provides small businesses with the means to keep America on the forefront of innovation and stimulate U.S. economic growth. We greatly appreciate the opportunity to work with you on reauthorizing SBIR and STTR. Thank you.</t>
   </si>
   <si>
-    <t>Lauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lauer. Good morning. Chairwoman Comstock, Ranking Member Lipinski, and members of the Subcommittee, it is an honor to appear before you today to talk about how the SBIR and STTR programs fit within the overall context of the NIH research portfolio.    NIH has been advancing our understanding of health and disease for more than a century. Scientific and technological breakthroughs generated by NIH-supported research are behind many of the improvements our country has enjoyed in public health. Many recent breakthroughs stem from our Nation's commitment from investing in basic research, which lays the foundation for advances in disease diagnosis, and prevention and is generally not supported by the private sector.    NIH supports a broad research portfolio that includes basic science, translational science, clinical research, and population-based research at universities, academic health centers, and small businesses. Like any other investment portfolio, the key to success is diversity, which maximizes the likelihood that we will come up with transformative cures.    It is important to remember that many years and financial resources are necessary to bring medical innovations into the practice of medicine. It has been estimated that it takes 11 to 14 years and approximately $2.6 billion to bring a new drug to market.    While basic science lays the foundation for advancing our knowledge about the nature and behavior of living systems, this knowledge must then be applied and translated and later approved through the regulatory system before patients can benefit. The small business community benefits form all of the formative research supported by NIH.    Among the 11 federal departments and agencies that participate in the SBIR and STTR programs, the NIH is the second largest funder. Examples of the types of research that we support include but are not limited to drug discovery, medical devices, biosensors, nanotechnology, imaging, and bioengineering. A successful example of a technology developed through our programs is Lift Labs' Liftware, which creates stabilizing technologies to help people with essential tremor and Parkinson's disease.    Our programs have grown significantly with the increases provided by the 2011 Reauthorization. Between fiscal years 2011 and 2016, the NIH budget increased by about 4.5 percent, while our SBIR and STTR budgets increased approximately 30 percent, or six times as much.    We are grateful for the financial and human resources support provided through the administrative fund pilot authority. We have used this authority to bolster and diversify our program outreach efforts, reaching more than 24,000 individuals from all states in the past several years, including 940 women-owned and 650 socially and economically disadvantaged small businesses. Through these and other efforts, we anticipated increased applications from these groups in the future, further diversifying the programs.    The NIH strongly supports the SBIR and STTR programs. For decades, these programs have served as vital sources of federal funding for innovative American small businesses. The program should be permanently reauthorized to provide us all with much-needed long-term certainty.    However, future growth in SBIR and STTR programs should be realized through overall extramural budget increases for each agency. For example, the Congress provided NIH with a $2 billion increase this past year, which meant that our SBIR and STTR budget increased by 12.4 percent from the previous year, nearly twice the agency's increase.    Scholars have noted that the biomedical research enterprise now suffers from hypercompetitiveness with increasing numbers of researchers competing against each other for relatively fewer available dollars. Historically, NIH success rates have been about one in three, and they are now down to less than one in five. We are concerned that dedicating an ever-increasing proportion of NIH's extramural research dollars to these two specific programs would threaten the diversity of the research portfolio, a portfolio that succeeds precisely because it is so diverse. In our judgment, it would be more effective for overall R&amp;D budgets to increase so all programs benefit.    Furthermore, it is imperative that NIH and other federal agencies participating in the program be provided with the resources necessary for effective administration, oversight and outreach as well as reasonable flexibility on award size and sequencing consistent with the diverse needs of small businesses in different industries and technology areas.    This concludes my statement. Thank you for your attention, and I look forward to answering any questions you may have.</t>
   </si>
   <si>
-    <t>Dehmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Dehmer. Thank you, Chairman Comstock, Ranking Member Lipinski, Chairman Smith and Ranking Member Johnson from the full Committee, and members of the subcommittee. My name is Pat Dehmer, and I am the Deputy Director of the Department of Energy's Office of Science, where I oversee all of the science programs. The DOE SBIR/STTR Program Office is one of nine reporting to me.    The Office of Science has managed the Department's SBIR/STTR programs since the formation of SBIR in 1982. We work with the six science outlay programs in the Office of Science with four applied energy technology offices, with the Office of Environmental Management, and with the Office of Defense Nuclear Nonproliferation with in the National Nuclear Security Administration. These 12 offices together contribute about $200 million annually to SBIR/STTR, and the Office of Science is about 2/3 of this funding.    Since its establishment as a separate agency within the Department of Energy, the Advanced Research Projects Agency-Energy, or ARPA-E, has managed its own small SBIR program, about $8 million annually, with initial awards in 2012.    During the past few years, we have experimented with some new approaches, some resulting directly from the Reauthorization Act of 2011, which I'll talk about in a moment. But first I want to mention one other program. In 2013, we began something called the Technology Transfer Opportunities, or TTOs, as part of our funding opportunity announcements. TTOs enable small business to use technology that has been developed using DOE funding at our national laboratories or at universities. TTOs awardees are assigned rights by the institution owning the technology to perform R&amp;D on the technology during Phase I or Phase II grants. In addition, the research institute provides the awardee with a no-cost, six-month option to license the technology.    In 2015, 10 Phase I and two Phase II TTO awards were made, representing technologies from Michigan State University and from four of our Department of Energy National Laboratories. When the 2013 cohort, the first cohort completes, we will begin an assessment of the outcomes of this particular experiment.    I'd like to turn now to some important features of the 2011 Reauthorization Act, particularly as they might relate to your consideration of the forthcoming reauthorization. The 2011 Reauthorization Act created a pilot program that allowed agencies to use up to three percent of SBIR program funds to improve the administration of these programs. DOE used from .6 to .9 percent of program funds annually for some very important improvements.    First is the improvement in our award timelines. By adding small amounts of funding to accelerate the development of our new Office of Science-wide web-based grants management system and introducing a few process changes, we were able to reduce the time from the close of a solicitation to Phase I actual awards by a factor of two from eight months to four months. That's a very substantial improvement, and the opportunity to have this flexibility was critical to us.    A second thing that we did with this authorization was an important outreach activity. We created a Phase 0 assistance program to help under represented small businesses apply for SBIR/STTR funding. In this program, we target applications from states with historically low SBIR/STTR submissions and from women and minority-owned businesses across the Nation. The Phase 0 assistance program helps awardees with letter-of-intent writing, Phase I proposal preparation, review and submission, training and mentoring, communications and market research, technology advice, and consulting on areas of intellectual property. In just three funding opportunity announcements, we received more than 500 applications for the Phase 0 assistance program and we provided services to 165 participants. Again, we plan to assess the effectiveness of this after a year or so of this program being in operation.    The Reauthorization Act of 2011 also permitted us to make sequential Phase II awards. These awards permit us to fund additional R&amp;D to complete Phase II research if necessary and to assist with transition to commercialization. In 2015, 17 percent of our Phase II awards were sequential Phase II awards.    As you think about the reauthorization in 2017, we'd like to take this opportunity to present our thoughts. We strongly support permanent reauthorization to provide federal agencies with long-term certainty and stability. We strongly support the existing flexibilities provided on award size and sequencing and, for example, that helped us innovate and begin the Phase II assistance pilot program and, finally, like my colleagues, we support maintaining the SBIR/STTR set-asides at the 2017 levels, which represent more than a 30 percent increase over the fiscal year 2011 level.    Thank you very much for the opportunity to talk to you. I appreciate the Committee's interest in this important topic, and I will be happy to answer your questions.</t>
   </si>
   <si>
-    <t>Garton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Garton. Good morning, Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and members of the Subcommittee. My name is Jilda Diehl Garton, and I serve as the Vice President for Research and General Manager of Georgia Technology Research Corporation at Georgia Tech.    Georgia Tech is a comprehensive public university with more than 25,000 undergraduate and graduate students. We reported more than $765 million in research expenditures in 2015 with research funding from a variety of federal and non-federal sponsors. Private industry sponsors about 13 percent of the total research activity at Georgia Technology, and includes several dozen SBIR and STTR subcontracts. And we do a little tech transfer at Georgia Tech. Georgia Tech is among the top 25 universities in the number of U.S. patents granted in 2014, and over the past five years, 81 companies have been formed based on Georgia Tech technologies.    SBIR and STTR programs are important to universities because these are important to our technology transfer ecosystems. America's universities create amazing new inventions every day. My own institution will receive about 350 invention disclosures this year alone. As creators and stewards of these inventions, we have an obligation to make them available to the public in the form of new products, new drugs, new assistive technologies and new services. University technology transfer works with the private sector to move technologies from the laboratory into companies that can develop them, invest in them, and commercialize them. It's this ecosystem that we want to develop.    Universities value the SBIR and STTR programs, and we generally support their permanent reauthorization at their current set-aside levels, and that's because these are important parts of that ecosystem.    In thinking about how to discuss our experiences with the SBIR and STTR programs, I thought it might be helpful to offer an example that illustrates how the SBIR program in particular interacts with other parts of the innovation ecosystem on my campus to support new ventures that are trying to bring new technologies onto market. I've given you a couple of examples also in my written testimony including one woman-owned company.    Pindrop is an Atlanta-based company that markets a way to combat telecommunications fraud through something they call acoustic fingerprinting. The technology resulted from Department of Defense-funded research that was conducted by a professor in the College of Computing and to students. The invention was closed to GTRC in 2010 and licensed to a new company in 2011. Pindrop's management participated in and was mentored by Georgia Tech's NSF I-Corps program. We're very proud to have been one of those original three nodes.    The company went on to work with our SBIR assistance office, which helps companies that are formed in our environment reach out and identify opportunities in SBIR and STTR programs at various agencies and prepare proposals and submit them in a way that will help them get funded. Pindrop won one of those SBIR awards, and went on to develop their technology, and in January 2016, Pindrop received Series C investment from Google Finance. They're on their way to being a major company in this space.    Pindrop's story shows how development inside the university readied the technology for the marketplace and de-risked it. SBIR funds increased the likelihood that the company would become successful. As it developed its technology, it became more attractive for private-sector investment. Pindrop's story also demonstrates how long it takes and how much investment is actually needed.    You've asked us for advice in areas of potential improvement as you consider the reauthorization of these programs, and I would be remiss if I did not point out that Pindrop would not have been possible without basic research. As the federal investment in research and development conducted at U.S. universities is constrained, it's important to acknowledge that funding basic science and engineering has to be a priority because that's what fills the pipeline of discoveries that feed the innovation ecosystem.    Universities are interested in seeking balance. If I have one thing to offer for your consideration, it would be to focus on the overall fiscal budgets for the research funding agencies and ensure robust investment in basic and applied research to support the highest quality peer-reviewed research.    It remains the case that there's a funding gap that sometimes prevents universities from moving new discoveries and technology into the marketplace. Accordingly, members of the higher education community have recommended creating the SBIR program that would focus on commercialization that we often call Phase zero. These awards could be used by universities to engage in prototyping, mentoring, and supporting market readiness initiatives.    Finally, I would like to suggest that we could all benefit from additional information about the federal SBIR and STTR funding. Dr. Lauer and Dr. Dehmer have talked about a number of efforts at their agencies to analyze the success rates of the programs and how the companies perform after award. These objective measures of performance and indicators of performance would be very welcome.    I'd like to thank the Subcommittee for the opportunity to provide our insights from the university perspective on the important question of reauthorization of the programs, and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -145,9 +124,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and thank you to the witnesses for sharing with us today.    Ms. Garton, you shared the success story of Pindrop, and I appreciate your testimony because it gives us a real-life example that makes it easier to understand the importance of research.    Bill Gates once said--who is obviously one of the great innovators of our time. He said that governments will always play a big part in solving big problems. They set public policy and are uniquely able to provide the resources to make sure solutions reach everyone who needs them. They also fund basic research, which is a crucial component of the innovation that improves life for everyone.    Having an engineering background and sitting on this Committee, I've really enjoyed getting to go see where this research is being done. I made a trip out to the Berkeley National Research Lab and I saw some very exciting research there in biofuels and creating economical methods to use our bioresources to make all kinds of fuels and chemicals. I saw some innovative research with nanotechnology with a material that it's envisioned that if you could create a filter out of this material, you could essentially clean the entire stack emissions from a coal-fired plant, very exciting stuff.    In my home state, the institutions of higher learning are doing some neat research. The University of Arkansas Institute for Nanoscience and Engineering Technology, just amazing some of the things that they are doing.    What I would like to ask you, we've talked about some success stories but could you share with us maybe one exciting new innovation that's on the horizon that's taking place at your organizations and how close are we to seeing those become reality, and I'll start with you, Dr. Khargonekar.</t>
   </si>
   <si>
@@ -208,9 +184,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Mr. Khargonekar, the idea for the Small Business Innovation Research is to fund innovative technologies that the private sector may not be inclined to fund, in other words, address the problem of underinvestment in R&amp;D. Is the program serving this purpose of it is focusing on proposals that are based on commercial viability, technical merit, or an agency's agendas?</t>
   </si>
   <si>
@@ -262,9 +235,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Chair Comstock and Ranking Member Lipinski, for holding this hearing.    To our witnesses, the SBIR and STTR programs have helped universities and small businesses not only in my State of Oregon but of course across the country. TomegaVax is one example, an Oregon Health Science University-based startup that's received funding from the programs. They are developing vaccines and immunotherapies for chronic and recurring viral infections and they're now based on this research recruiting the first human volunteers for a clinical trial on a promising HIV vaccine. So great programs, but I had a conversation recently with our institutions of higher education and some innovative small businesses, and a couple things came up, and I'm going to ask you about those.    First, I heard about a woman who has a Ph.D. in cancer biology, decided not to go back to work after her kids were born because science funding is complicated and tenuous. I also heard from a small business--a creative small business owner, very innovative, who said that they don't even look at the SBA for funding because application process is complicated and time-consuming. This is someone who's a patent attorney with an MBA, so if it's not user-friendly to somebody like that, the first issue is, what is being done to address the complication and the, I guess, tenuous nature of science funding in general?    The second issue that came up that I'll ask you to address is the funding gap between Phase I and Phase II, and we heard about up to 6 to 9 months can go by between Phase I and Phase II, and if it's a small business with just a couple of employees, they don't know what to do for that time, and they're really--it's really killing some efforts and what could be some very innovative products.    So I guess I'll start with Dr. Khargonekar, if you could discuss the whole process and how complicated it is and uncertain and the funding gap, please, between Phase I and Phase II. Thank you.</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Madam Chair, and I want to thank the witnesses for being here today and your testimony. I want to take a brief moment just to highlight the impact of the SBIR program in my home state of Illinois. The SBIR program is an important source of investment in new technology for the State of Illinois. Since the program's inception, Illinois has received over $600 million in SBIR funding, creating thousands of new jobs, new products and new services.    As others have mentioned, the recent National Academy reports on the SBIR and STTR program in the civilian agency side a very strong record of commercialization and return on investment as well as strong linkages to the university and basic R&amp;D infrastructure within the country, which is clearly evident in the State of Illinois.    With the past successes of this program in mind, as we look to reauthorization of SBIR and STTR, what top recommendation would each of you make for improving the SBIR and STTR programs to more efficiently and effectively promote innovation and job creation? Doctor?</t>
   </si>
   <si>
@@ -352,9 +319,6 @@
     <t>412600</t>
   </si>
   <si>
-    <t>Katherine M. Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Chairwoman Comstock and Ranking Member Lipinski, for this hearing, and thank you to all of our witnesses today. We are delighted to have you, and I think your testimonies have underscored the immense value of the SBIR and STTR in making sure we're taking that research out of the labs and into the private sector. We're very grateful for you being here.    Dr. Dehmer, I'd like to go back to a program that you mentioned, which is the Phase 0 assistance program. As we see women increasingly--we're up to 30 percent of women who are owning their own businesses, and it's one of the fastest growing sectors, but we're not where we should be, especially with women of color, and I wondered, as one of the primary focuses of these programs is to encourage participation women and minority-owned businesses, I wondered if you could go into a little more detail on how the Phase 0 program benefits businesses that may be submitting a proposal for the first time and how you see the Phase 0 encouraging women and minority-owned businesses.</t>
   </si>
   <si>
@@ -383,9 +347,6 @@
   </si>
   <si>
     <t>412319</t>
-  </si>
-  <si>
-    <t>Paul Tonko</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    I for one am excited that we're holding this hearing today because I very strongly believe that reauthorization of the SBIR/STTR program is of the utmost importance. In fact, it should be broadened and extended and enhanced. I so much believe in it. This program has proven to be one of the most successful federal programs for technological innovation in our history, delivering more than 70,000 patents and valuable innovations in agriculture and defense and energy, health sciences, homeland security, space transportation and other fields. You can't get better results than that.    Through Phase I and Phase II, SBIR countless jobs have been created in the capital region of New York that I represent. It is through programs such as SBIR that my district has developed the underpinnings of support for a boom in high-technology innovation and economic development. I would cite International Electronic Machines Corporation in Troy as a stellar example of all of that.    Let me begin with Dr. Lauer. The 2011 reauthorization allows NIH, DOD and the Department of Education to conduct a pilot program to allow a small business to receive a Phase II without having received a Phase II award, also known as the Direct to Phase II pilot. I have some concern that allowing companies to skip Phase I would shut out some small businesses from competing for SBIR award funding. Can you elaborate, Doctor, on Direct to Phase II funding and efforts to prevent marginalization of some small businesses out there?</t>
@@ -823,11 +784,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -849,11 +808,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -875,11 +832,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -899,13 +854,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -925,13 +878,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -951,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -977,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1003,13 +950,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1029,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1055,13 +998,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1081,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1107,13 +1046,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1133,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1159,13 +1094,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1185,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1211,13 +1142,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1237,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1263,13 +1190,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1289,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1315,13 +1238,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1341,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1367,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1393,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1419,13 +1334,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1445,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1471,13 +1382,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1497,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1523,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1549,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1575,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>43</v>
-      </c>
-      <c r="H31" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1603,11 +1504,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1627,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1655,11 +1552,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1679,13 +1574,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1707,11 +1600,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1731,13 +1622,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1759,11 +1648,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1783,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1811,11 +1696,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1835,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1863,11 +1744,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1887,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1913,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1939,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1965,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1991,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2017,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2043,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2069,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2095,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>64</v>
-      </c>
-      <c r="H51" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2121,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2147,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2173,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2199,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2225,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2251,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2277,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" t="s">
-        <v>64</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2303,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2329,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2355,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2381,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2407,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2433,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2459,13 +2294,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2485,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2511,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
         <v>81</v>
-      </c>
-      <c r="G67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2537,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2563,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2589,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2615,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2641,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2667,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2693,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2719,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2745,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2771,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2797,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2823,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2849,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
-      </c>
-      <c r="G80" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2875,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2901,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>96</v>
-      </c>
-      <c r="G82" t="s">
-        <v>97</v>
-      </c>
-      <c r="H82" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2927,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2953,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>96</v>
-      </c>
-      <c r="G84" t="s">
-        <v>97</v>
-      </c>
-      <c r="H84" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2979,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3005,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
-      </c>
-      <c r="G86" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3031,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>111</v>
-      </c>
-      <c r="G87" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3057,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3083,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
-      </c>
-      <c r="G89" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3109,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3135,13 +2918,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
-      </c>
-      <c r="G91" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3161,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3187,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
-      </c>
-      <c r="G93" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3213,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3239,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s">
-        <v>112</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3265,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3291,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3317,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>122</v>
-      </c>
-      <c r="G98" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3343,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3369,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3395,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3421,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3447,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3473,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3499,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3525,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3551,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>29</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3577,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s">
+        <v>110</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>123</v>
-      </c>
-      <c r="H108" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20913.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20913.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock, for holding this hearing to review the SBIR and STTR programs, as well as to examine national efforts to support commercialization of federally funded research and development.    Those of you who follow this Committee know that I am always focused on finding better ways to promote commercialization of research, especially the great research funded by the American taxpayers at our universities and national labs.    This hearing is an important step in the reauthorization of the SBIR and STTR commercialization programs, which our subcommittee has jurisdiction over.    In the United States, where small businesses create 55 percent of all jobs, the success of the small business enterprise is key to economic growth.    For almost 40 years, the SBIR program has been funding small business innovation across all sectors of our economy. There are many prominent success stories from SBIR grants. A recent Air Force review of Phase II winners between 2000 and 2013 found that 58 percent of them had sales in excess of $1 million.    Importantly, many of the innovators who create these small businesses are educated and trained in our Nation's great research institutions, with support from federal research dollars. And some even directly commercialize research funded by federal dollars. The Federal R&amp;D enterprise is truly an ecosystem from basic research to commercialization.    Unlike any other program that I'm aware of, SBIR and STTR are funded using a percentage of participating agencies' extramural research and development budgets. That percentage has increased by 30 percent since 2011, even as the larger budgets have remained flat.    While the SBIR program has great value, we must look at it in the context of overall agency budgets and missions. Increasing the set-aside for SBIR and STTR as much as has been proposed by some could come at the expense of support for other critical research programs.    Perhaps my biggest concern is harm done to the pipeline of STEM talent and innovators by increasingly lower research funding levels. This is a difficult choice in tough budget times because both research and commercialization activities are highly valuable investments.    We must also look hard at assessments of the SBIR program and consider ways to make it more efficient and help the program better achieve its goals, and this hearing is a good opportunity to talk about other ways to improve the commercialization of federally funded research, including the very successful Innovation Corps program started at NSF in 2011 and now expanding to other agencies, as well as the NIH's Proof of Concept pilot program. I-Corps is essentially an entrepreneurial education program. The I-Corps Node program provides this education and other support for innovators at our research universities, creating a true interconnected, national innovation network.    I am pleased that Ms. Garton is joining us today, and I look forward to her testimony regarding Georgia Tech's I-Corps Node program and the challenges innovators face in seeking early stage funding.    In the five years since the I-Corps program has been running, it has clearly demonstrated its value in improving tech transfer and commercialization, and we are beginning to see that it makes the SBIR program more efficient as well. Although it takes time to fully realize success in commercialization, the early returns show I-Corps-trained teams having more success than comparable teams without this training. I think the time has come to talk about having some kind of I-Corps program at every agency with an SBIR program, as the two truly go hand in hand.    Finally, I want to mention language that I put in the 2011 SBIR Reauthorization bill which allowed for an NIH Proof of Concept pilot program, utilizing a small portion of the funds from the STTR set-aside, to give grants to researchers at a pre-SBIR stage. This could be called SBIR phase zero.    Many university researchers are hesitant to start a company, which often means leaving their university, so they're hesitant without having confidence that the idea can work out. The Proof of Concept pilot has led to programs at NIH such as the NIH Centers for Accelerated Innovations and the Research Evaluation and Commercialization Hubs, or REACH, programs. I believe programs like these can be an important part of the innovation ecosystem and I look forward to an update on the pilot from Dr. Lauer.    I know the agencies here today are exploring many other aspects of early stage commercialization, including how to coordinate these efforts better with the SBIR program. I look forward to this broader discussion about commercializing federally funded research. I also look forward to your testimony about how you've implemented new requirements and flexibilities in the SBIR program since the 2011 reauthorization, and what our Committee should consider as we take up the next reauthorization.    I would like to ask unanimous consent to enter into the record the Administration's Principles for SBIR/STTR Reauthorization and the letter dated May 10, 2016, from a coalition of science organizations and universities.    Chairwoman Comstock. Thank you----</t>
   </si>
   <si>
@@ -64,27 +73,51 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chairwoman, and I appreciate both your comments and the comments by the Ranking Member.    The Small Business Innovation Research Act, or SBIR, was signed into law by President Reagan in 1982 to help spur innovation and increase small business participation in federal research and development activity.    Since then, more than 100,000 small businesses in the United States have received SBIR grants to convert taxpayer-supported basic research discoveries into commercial technological innovation.    The Small Business Technology Transfer program, or STTR, was approved by Congress in 1992. STTR's unique feature is its requirement for a small business to collaborate with a nonprofit research institution in order to bridge the gap between basic science and commercialization of resulting innovations.    Both SBIR and STTR are funded through a tax on federal agencies' research budgets. The SBIR tax on research began at 0.2 percent; that tax is now three percent, or 15 times higher. Twelve federal agencies--those with annual external research budgets of $100 million or more--are currently subject to the SBIR tax.    The five federal departments and agencies with annual external research budgets of more than $1 billion are also taxed to provide funding for the STTR program. That tax is an additional .45 percent on the three research agencies represented here today: DOE, NSF, and NIH. These basic research taxes currently amount to approximately $2.5 billion each year for commercialization grants to small businesses.    Grant recipients run the gamut. Although about one-quarter of the companies are first-time recipients, most participating small businesses have received multiple SBIR grants.    Some former recipients of SBIR assistance have even become very large international corporations, such as Qualcomm, Sonicare, and Symantec.    SBIR and STTR companies have created parts for NASA's Mars Rover, equipped our military men and women with key war-fighting innovations, and generated a long list of lifesaving medicines and health care treatments.    SBIR and STTR recipients have thousands of new patents and created thousands of new jobs, many in new areas of technology.    In the leading-edge field of nanoscience, we're learning that tiny particles can have very big effects. SBIR support enabled Applied Nanotech of Austin, TX, to become a world leader in nanotechnology breakthroughs: inventing cheaper, more efficient solar energy cells, new materials for blast-resistant structures and equipment, and low-cost, high-performance metallic inks and pastes for ink-jet-printed electronics.    Xeris Pharmaceuticals, also Austin-based, has used SBIR grants to develop new delivery systems for injectable medicines that are not soluble with water. This includes a system for injectable glucagon to treat congenital hyperinsulinism that affects thousands of infants and young children.    The current legislative authorization for the SBIR and STTR programs doesn't expire until September of next year. The Science Committee is holding its first hearing today in order to start the process of timely oversight and reauthorization consideration.    There are still ways to improve SBIR and STTR and assure taxpayers are getting the greatest return for the investments of their hard-earned dollars. Instances of fraud and abuse continue to be problematic.    Objective measurement of results across all participating federal agencies is needed. It is also important to examine if the current funding level--the taxes on basic research--are hurting fundamental scientific research. Any increases would necessarily reduce our Nation's primary investments in basic research at a time when U.S. global leadership is threatened. As the members of this Committee know, China is set to overtake the U.S. in R&amp;D spending as soon as 2020.    Madam Chairwoman, I look forward to hearing from our panel of witnesses today, who are all experts in their own right, and who represent federal agencies and research universities, about these and other issues.    Thank you, and yield back.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, and good morning. I'd like to thank you, Madam Chair, for holding this hearing today to examine the Small Business Innovation Research program and the Small Business Technology Transfer programs and related technology transfer issues, and I'd like also to thank the Chairman of the full Committee for ensuring that Science Committee members have the opportunity to weigh in on reauthorization of these important programs.    The United States has long been a nation that nurtures innovation. The number of small businesses has grown by 49 percent since 1982, and today's 28 million small businesses make up 54 percent of all U.S. sales. The invigorating startup culture we have seen for the last decade and a half has contributed to this growth and has given us extraordinary economic and social benefits.    The first SBIR program was at the National Science Foundation and was started in the mid-1970s to support small high-tech firms' ability to compete for federal R&amp;D grants. This program grew to a government-wide program in 1982. Today the program receives approximately $2.2 billion from funds set-aside from the federal research and development budget. The SBIR and STTR programs are funded from a set-aside from agencies' extramural R&amp;D budgets. They are the only R&amp;D programs that are funded in this market. While stability and continuity in the programs are important goals, the SBIR and STTR programs are just one tool in a much larger R&amp;D toolbox that agencies draw from to meet their missions.    The SBIR and STTR programs were last authorized from fiscal years 2012 through 2017. During that time, the programs grew by 30 percent. In addition, the 2011 reauthorization introduced many new requirements and flexibilities for the agencies.    Before we reauthorize the programs, it is the responsibility of this Committee to review how the new policies introduced in the last reauthorization have been implemented, how well the programs are achieving their goals and how they might continue to improve, and how the programs fit into the larger federal research and development enterprise. Our job on the Science Committee is to help ensure the health and sustainability of this entire enterprise.    One particular issue I hope our witnesses can address is women and minority participation. According to the National Academies, agencies are doing well in all of the main goals of the SBIR and STTR programs except for participation in innovation by economically and socially disadvantaged groups. I have spent my entire political career working on increasing female and minority participation in STEM starting in the early 1970s, I might add. I'm glad to say that we are not doing much better--I'm sad to say that we are not doing much better today than when I started.    SBIR cannot solve disparities created earlier in the pipeline. However, we know that women and minorities receive less encouragement and support to become entrepreneurs. I'd like to hear from our witnesses today how agencies can help address this disparity through the SBIR and STTR programs.    I thank the witnesses for being here today and I look forward to their comments and recommendations for future legislation.    Thank you, Madam Chair, and I yield back the balance of my time.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Khargonekar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Khargonekar. Good morning, Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, Ranking Member Johnson, Committee members. Thank you for this opportunity to testify regarding the Small Business Innovation Research and Small Business Technology Transfer programs at the National Science Foundation. My name is Pramod Khargonekar. I am the Assistant Director for Engineering at National Science Foundation. The SBIR/STTR program at NSF is managed within the Division of Industrial Innovation and Partnerships and the Directorate for Engineering.    While NSF's primary mission is to advance the frontiers of science and engineering through basic research, the SBIR/STTR program is an integral part of the NSF strategy to stimulate innovation and address societal needs. This is achieved through the commercialization of results of fundamental research. We fund small businesses at very early stages when the technology risk is high and before the private sector is normally willing to invest.    Since the NSF is not the ultimate customer of resulting innovations, the NSF SBIR/STTR research topics are designed to address existing and emerging needs of the U.S. marketplace and the Nation as a whole. For example, NSF SBIR research brought about Symantec, which is now a global leader in cybersecurity. It was founded in 1982 by Gary Hendrix, who was funded by an NSF SBIR grant. Qualcomm, a world leader in wireless communications and computing technologies, also received NSF SBIR funding during the 1980s in its early years as a small business. Its co-founder, Irwin Jacobs, recently stated, and I quote, ``With one of the grants, we developed some of the first chips we did at Qualcomm, if not the first. Of course, making chips for cell phones is now about 2/3 of our revenue today, and that was the base.''    In the last four decades, NSF has been continuously innovating and exploring new approaches to stimulating small business-based technological innovations and commercialization. In 1998, NSF SBIR introduced a new supplemental program called Phase IIB. It is a platform to stimulate NSF-funded active Phase II grantees to attract additional private-sector funding for further technology commercialization.    In addition to providing funding in varying stages, we also assist awardees by providing them with experiential entrepreneurial education based in part on the NSF Innovation Corps, or I-Corps program. I-Corps helps entrepreneurs and their small businesses understand market needs and customers, thus increasing their chances of successful commercialization of new technologies.    Another program closely related to I-Corps is the Accelerating Innovation Research, or AIR. We frequently find that NSF-funded researchers apply for AIR grants first before pursuing I-Corps training. We are seeing strong interactions between these programs and our SBIR/STTR program where researchers with NSF-funded fundamental research advance to AIR first, then go through I-Corps, and then pursue SBIR/STTR funding. This pathway is getting strong and working extremely well.    We also many other translational research programs which complement our significant investments in fundamental scientific and engineering research.    SBIR and STTR are vital components of NSF's agenda to enable commercialization of technology stemming from basic research. We at NSF take great pride in having pioneered the SBIR program concept and continue to innovate to expand its impact.    Recently, there have been proposals to increase the set-aside percentages for SBIR/STTR whose ultimate effect will be to apportion a greater amount of the NSF research budget to the SBIR/STTR program.    NSF is the lead agency for the support of basic research at our Nation's universities. Our budget for basic research has been flat during this decade, and any further diminution will reduce the very discoveries that our country needs to remain an economic powerhouse and a global leader. We do support future growth in SBIR/STTR programs but urge that such growth be enabled through an overall budget increase for NSF.    NSF strongly supports a permanent reauthorization of SBIR/STTR and recommends that the annual set-aside percentages for the programs be maintained at fiscal year 2017 levels.    Lastly, I should note that NSF participated in interagency process to detail principles all the SBIR/STTR agencies can support for reauthorization, which include permanent reauthorization, growth in program through overall extramural research growth, and maintaining flexibility.    Madam Chairwoman, this concludes my testimony. On behalf of the National Science Foundation, the SBIR/STTR program, and our awardees, I want to thank you for this opportunity to highlight a program that provides small businesses with the means to keep America on the forefront of innovation and stimulate U.S. economic growth. We greatly appreciate the opportunity to work with you on reauthorizing SBIR and STTR. Thank you.</t>
   </si>
   <si>
+    <t>Lauer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lauer. Good morning. Chairwoman Comstock, Ranking Member Lipinski, and members of the Subcommittee, it is an honor to appear before you today to talk about how the SBIR and STTR programs fit within the overall context of the NIH research portfolio.    NIH has been advancing our understanding of health and disease for more than a century. Scientific and technological breakthroughs generated by NIH-supported research are behind many of the improvements our country has enjoyed in public health. Many recent breakthroughs stem from our Nation's commitment from investing in basic research, which lays the foundation for advances in disease diagnosis, and prevention and is generally not supported by the private sector.    NIH supports a broad research portfolio that includes basic science, translational science, clinical research, and population-based research at universities, academic health centers, and small businesses. Like any other investment portfolio, the key to success is diversity, which maximizes the likelihood that we will come up with transformative cures.    It is important to remember that many years and financial resources are necessary to bring medical innovations into the practice of medicine. It has been estimated that it takes 11 to 14 years and approximately $2.6 billion to bring a new drug to market.    While basic science lays the foundation for advancing our knowledge about the nature and behavior of living systems, this knowledge must then be applied and translated and later approved through the regulatory system before patients can benefit. The small business community benefits form all of the formative research supported by NIH.    Among the 11 federal departments and agencies that participate in the SBIR and STTR programs, the NIH is the second largest funder. Examples of the types of research that we support include but are not limited to drug discovery, medical devices, biosensors, nanotechnology, imaging, and bioengineering. A successful example of a technology developed through our programs is Lift Labs' Liftware, which creates stabilizing technologies to help people with essential tremor and Parkinson's disease.    Our programs have grown significantly with the increases provided by the 2011 Reauthorization. Between fiscal years 2011 and 2016, the NIH budget increased by about 4.5 percent, while our SBIR and STTR budgets increased approximately 30 percent, or six times as much.    We are grateful for the financial and human resources support provided through the administrative fund pilot authority. We have used this authority to bolster and diversify our program outreach efforts, reaching more than 24,000 individuals from all states in the past several years, including 940 women-owned and 650 socially and economically disadvantaged small businesses. Through these and other efforts, we anticipated increased applications from these groups in the future, further diversifying the programs.    The NIH strongly supports the SBIR and STTR programs. For decades, these programs have served as vital sources of federal funding for innovative American small businesses. The program should be permanently reauthorized to provide us all with much-needed long-term certainty.    However, future growth in SBIR and STTR programs should be realized through overall extramural budget increases for each agency. For example, the Congress provided NIH with a $2 billion increase this past year, which meant that our SBIR and STTR budget increased by 12.4 percent from the previous year, nearly twice the agency's increase.    Scholars have noted that the biomedical research enterprise now suffers from hypercompetitiveness with increasing numbers of researchers competing against each other for relatively fewer available dollars. Historically, NIH success rates have been about one in three, and they are now down to less than one in five. We are concerned that dedicating an ever-increasing proportion of NIH's extramural research dollars to these two specific programs would threaten the diversity of the research portfolio, a portfolio that succeeds precisely because it is so diverse. In our judgment, it would be more effective for overall R&amp;D budgets to increase so all programs benefit.    Furthermore, it is imperative that NIH and other federal agencies participating in the program be provided with the resources necessary for effective administration, oversight and outreach as well as reasonable flexibility on award size and sequencing consistent with the diverse needs of small businesses in different industries and technology areas.    This concludes my statement. Thank you for your attention, and I look forward to answering any questions you may have.</t>
   </si>
   <si>
+    <t>Dehmer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Dehmer. Thank you, Chairman Comstock, Ranking Member Lipinski, Chairman Smith and Ranking Member Johnson from the full Committee, and members of the subcommittee. My name is Pat Dehmer, and I am the Deputy Director of the Department of Energy's Office of Science, where I oversee all of the science programs. The DOE SBIR/STTR Program Office is one of nine reporting to me.    The Office of Science has managed the Department's SBIR/STTR programs since the formation of SBIR in 1982. We work with the six science outlay programs in the Office of Science with four applied energy technology offices, with the Office of Environmental Management, and with the Office of Defense Nuclear Nonproliferation with in the National Nuclear Security Administration. These 12 offices together contribute about $200 million annually to SBIR/STTR, and the Office of Science is about 2/3 of this funding.    Since its establishment as a separate agency within the Department of Energy, the Advanced Research Projects Agency-Energy, or ARPA-E, has managed its own small SBIR program, about $8 million annually, with initial awards in 2012.    During the past few years, we have experimented with some new approaches, some resulting directly from the Reauthorization Act of 2011, which I'll talk about in a moment. But first I want to mention one other program. In 2013, we began something called the Technology Transfer Opportunities, or TTOs, as part of our funding opportunity announcements. TTOs enable small business to use technology that has been developed using DOE funding at our national laboratories or at universities. TTOs awardees are assigned rights by the institution owning the technology to perform R&amp;D on the technology during Phase I or Phase II grants. In addition, the research institute provides the awardee with a no-cost, six-month option to license the technology.    In 2015, 10 Phase I and two Phase II TTO awards were made, representing technologies from Michigan State University and from four of our Department of Energy National Laboratories. When the 2013 cohort, the first cohort completes, we will begin an assessment of the outcomes of this particular experiment.    I'd like to turn now to some important features of the 2011 Reauthorization Act, particularly as they might relate to your consideration of the forthcoming reauthorization. The 2011 Reauthorization Act created a pilot program that allowed agencies to use up to three percent of SBIR program funds to improve the administration of these programs. DOE used from .6 to .9 percent of program funds annually for some very important improvements.    First is the improvement in our award timelines. By adding small amounts of funding to accelerate the development of our new Office of Science-wide web-based grants management system and introducing a few process changes, we were able to reduce the time from the close of a solicitation to Phase I actual awards by a factor of two from eight months to four months. That's a very substantial improvement, and the opportunity to have this flexibility was critical to us.    A second thing that we did with this authorization was an important outreach activity. We created a Phase 0 assistance program to help under represented small businesses apply for SBIR/STTR funding. In this program, we target applications from states with historically low SBIR/STTR submissions and from women and minority-owned businesses across the Nation. The Phase 0 assistance program helps awardees with letter-of-intent writing, Phase I proposal preparation, review and submission, training and mentoring, communications and market research, technology advice, and consulting on areas of intellectual property. In just three funding opportunity announcements, we received more than 500 applications for the Phase 0 assistance program and we provided services to 165 participants. Again, we plan to assess the effectiveness of this after a year or so of this program being in operation.    The Reauthorization Act of 2011 also permitted us to make sequential Phase II awards. These awards permit us to fund additional R&amp;D to complete Phase II research if necessary and to assist with transition to commercialization. In 2015, 17 percent of our Phase II awards were sequential Phase II awards.    As you think about the reauthorization in 2017, we'd like to take this opportunity to present our thoughts. We strongly support permanent reauthorization to provide federal agencies with long-term certainty and stability. We strongly support the existing flexibilities provided on award size and sequencing and, for example, that helped us innovate and begin the Phase II assistance pilot program and, finally, like my colleagues, we support maintaining the SBIR/STTR set-asides at the 2017 levels, which represent more than a 30 percent increase over the fiscal year 2011 level.    Thank you very much for the opportunity to talk to you. I appreciate the Committee's interest in this important topic, and I will be happy to answer your questions.</t>
   </si>
   <si>
+    <t>Garton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Garton. Good morning, Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and members of the Subcommittee. My name is Jilda Diehl Garton, and I serve as the Vice President for Research and General Manager of Georgia Technology Research Corporation at Georgia Tech.    Georgia Tech is a comprehensive public university with more than 25,000 undergraduate and graduate students. We reported more than $765 million in research expenditures in 2015 with research funding from a variety of federal and non-federal sponsors. Private industry sponsors about 13 percent of the total research activity at Georgia Technology, and includes several dozen SBIR and STTR subcontracts. And we do a little tech transfer at Georgia Tech. Georgia Tech is among the top 25 universities in the number of U.S. patents granted in 2014, and over the past five years, 81 companies have been formed based on Georgia Tech technologies.    SBIR and STTR programs are important to universities because these are important to our technology transfer ecosystems. America's universities create amazing new inventions every day. My own institution will receive about 350 invention disclosures this year alone. As creators and stewards of these inventions, we have an obligation to make them available to the public in the form of new products, new drugs, new assistive technologies and new services. University technology transfer works with the private sector to move technologies from the laboratory into companies that can develop them, invest in them, and commercialize them. It's this ecosystem that we want to develop.    Universities value the SBIR and STTR programs, and we generally support their permanent reauthorization at their current set-aside levels, and that's because these are important parts of that ecosystem.    In thinking about how to discuss our experiences with the SBIR and STTR programs, I thought it might be helpful to offer an example that illustrates how the SBIR program in particular interacts with other parts of the innovation ecosystem on my campus to support new ventures that are trying to bring new technologies onto market. I've given you a couple of examples also in my written testimony including one woman-owned company.    Pindrop is an Atlanta-based company that markets a way to combat telecommunications fraud through something they call acoustic fingerprinting. The technology resulted from Department of Defense-funded research that was conducted by a professor in the College of Computing and to students. The invention was closed to GTRC in 2010 and licensed to a new company in 2011. Pindrop's management participated in and was mentored by Georgia Tech's NSF I-Corps program. We're very proud to have been one of those original three nodes.    The company went on to work with our SBIR assistance office, which helps companies that are formed in our environment reach out and identify opportunities in SBIR and STTR programs at various agencies and prepare proposals and submit them in a way that will help them get funded. Pindrop won one of those SBIR awards, and went on to develop their technology, and in January 2016, Pindrop received Series C investment from Google Finance. They're on their way to being a major company in this space.    Pindrop's story shows how development inside the university readied the technology for the marketplace and de-risked it. SBIR funds increased the likelihood that the company would become successful. As it developed its technology, it became more attractive for private-sector investment. Pindrop's story also demonstrates how long it takes and how much investment is actually needed.    You've asked us for advice in areas of potential improvement as you consider the reauthorization of these programs, and I would be remiss if I did not point out that Pindrop would not have been possible without basic research. As the federal investment in research and development conducted at U.S. universities is constrained, it's important to acknowledge that funding basic science and engineering has to be a priority because that's what fills the pipeline of discoveries that feed the innovation ecosystem.    Universities are interested in seeking balance. If I have one thing to offer for your consideration, it would be to focus on the overall fiscal budgets for the research funding agencies and ensure robust investment in basic and applied research to support the highest quality peer-reviewed research.    It remains the case that there's a funding gap that sometimes prevents universities from moving new discoveries and technology into the marketplace. Accordingly, members of the higher education community have recommended creating the SBIR program that would focus on commercialization that we often call Phase zero. These awards could be used by universities to engage in prototyping, mentoring, and supporting market readiness initiatives.    Finally, I would like to suggest that we could all benefit from additional information about the federal SBIR and STTR funding. Dr. Lauer and Dr. Dehmer have talked about a number of efforts at their agencies to analyze the success rates of the programs and how the companies perform after award. These objective measures of performance and indicators of performance would be very welcome.    I'd like to thank the Subcommittee for the opportunity to provide our insights from the university perspective on the important question of reauthorization of the programs, and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -124,6 +157,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Madam Chair, and thank you to the witnesses for sharing with us today.    Ms. Garton, you shared the success story of Pindrop, and I appreciate your testimony because it gives us a real-life example that makes it easier to understand the importance of research.    Bill Gates once said--who is obviously one of the great innovators of our time. He said that governments will always play a big part in solving big problems. They set public policy and are uniquely able to provide the resources to make sure solutions reach everyone who needs them. They also fund basic research, which is a crucial component of the innovation that improves life for everyone.    Having an engineering background and sitting on this Committee, I've really enjoyed getting to go see where this research is being done. I made a trip out to the Berkeley National Research Lab and I saw some very exciting research there in biofuels and creating economical methods to use our bioresources to make all kinds of fuels and chemicals. I saw some innovative research with nanotechnology with a material that it's envisioned that if you could create a filter out of this material, you could essentially clean the entire stack emissions from a coal-fired plant, very exciting stuff.    In my home state, the institutions of higher learning are doing some neat research. The University of Arkansas Institute for Nanoscience and Engineering Technology, just amazing some of the things that they are doing.    What I would like to ask you, we've talked about some success stories but could you share with us maybe one exciting new innovation that's on the horizon that's taking place at your organizations and how close are we to seeing those become reality, and I'll start with you, Dr. Khargonekar.</t>
   </si>
   <si>
@@ -184,6 +223,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Mr. Khargonekar, the idea for the Small Business Innovation Research is to fund innovative technologies that the private sector may not be inclined to fund, in other words, address the problem of underinvestment in R&amp;D. Is the program serving this purpose of it is focusing on proposals that are based on commercial viability, technical merit, or an agency's agendas?</t>
   </si>
   <si>
@@ -235,6 +280,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you, Chair Comstock and Ranking Member Lipinski, for holding this hearing.    To our witnesses, the SBIR and STTR programs have helped universities and small businesses not only in my State of Oregon but of course across the country. TomegaVax is one example, an Oregon Health Science University-based startup that's received funding from the programs. They are developing vaccines and immunotherapies for chronic and recurring viral infections and they're now based on this research recruiting the first human volunteers for a clinical trial on a promising HIV vaccine. So great programs, but I had a conversation recently with our institutions of higher education and some innovative small businesses, and a couple things came up, and I'm going to ask you about those.    First, I heard about a woman who has a Ph.D. in cancer biology, decided not to go back to work after her kids were born because science funding is complicated and tenuous. I also heard from a small business--a creative small business owner, very innovative, who said that they don't even look at the SBA for funding because application process is complicated and time-consuming. This is someone who's a patent attorney with an MBA, so if it's not user-friendly to somebody like that, the first issue is, what is being done to address the complication and the, I guess, tenuous nature of science funding in general?    The second issue that came up that I'll ask you to address is the funding gap between Phase I and Phase II, and we heard about up to 6 to 9 months can go by between Phase I and Phase II, and if it's a small business with just a couple of employees, they don't know what to do for that time, and they're really--it's really killing some efforts and what could be some very innovative products.    So I guess I'll start with Dr. Khargonekar, if you could discuss the whole process and how complicated it is and uncertain and the funding gap, please, between Phase I and Phase II. Thank you.</t>
   </si>
   <si>
@@ -277,6 +328,12 @@
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Madam Chair, and I want to thank the witnesses for being here today and your testimony. I want to take a brief moment just to highlight the impact of the SBIR program in my home state of Illinois. The SBIR program is an important source of investment in new technology for the State of Illinois. Since the program's inception, Illinois has received over $600 million in SBIR funding, creating thousands of new jobs, new products and new services.    As others have mentioned, the recent National Academy reports on the SBIR and STTR program in the civilian agency side a very strong record of commercialization and return on investment as well as strong linkages to the university and basic R&amp;D infrastructure within the country, which is clearly evident in the State of Illinois.    With the past successes of this program in mind, as we look to reauthorization of SBIR and STTR, what top recommendation would each of you make for improving the SBIR and STTR programs to more efficiently and effectively promote innovation and job creation? Doctor?</t>
   </si>
   <si>
@@ -319,6 +376,12 @@
     <t>412600</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Katherine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Clark. Thank you, Chairwoman Comstock and Ranking Member Lipinski, for this hearing, and thank you to all of our witnesses today. We are delighted to have you, and I think your testimonies have underscored the immense value of the SBIR and STTR in making sure we're taking that research out of the labs and into the private sector. We're very grateful for you being here.    Dr. Dehmer, I'd like to go back to a program that you mentioned, which is the Phase 0 assistance program. As we see women increasingly--we're up to 30 percent of women who are owning their own businesses, and it's one of the fastest growing sectors, but we're not where we should be, especially with women of color, and I wondered, as one of the primary focuses of these programs is to encourage participation women and minority-owned businesses, I wondered if you could go into a little more detail on how the Phase 0 program benefits businesses that may be submitting a proposal for the first time and how you see the Phase 0 encouraging women and minority-owned businesses.</t>
   </si>
   <si>
@@ -347,6 +410,12 @@
   </si>
   <si>
     <t>412319</t>
+  </si>
+  <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Madam Chair.    I for one am excited that we're holding this hearing today because I very strongly believe that reauthorization of the SBIR/STTR program is of the utmost importance. In fact, it should be broadened and extended and enhanced. I so much believe in it. This program has proven to be one of the most successful federal programs for technological innovation in our history, delivering more than 70,000 patents and valuable innovations in agriculture and defense and energy, health sciences, homeland security, space transportation and other fields. You can't get better results than that.    Through Phase I and Phase II, SBIR countless jobs have been created in the capital region of New York that I represent. It is through programs such as SBIR that my district has developed the underpinnings of support for a boom in high-technology innovation and economic development. I would cite International Electronic Machines Corporation in Troy as a stellar example of all of that.    Let me begin with Dr. Lauer. The 2011 reauthorization allows NIH, DOD and the Department of Education to conduct a pilot program to allow a small business to receive a Phase II without having received a Phase II award, also known as the Direct to Phase II pilot. I have some concern that allowing companies to skip Phase I would shut out some small businesses from competing for SBIR award funding. Can you elaborate, Doctor, on Direct to Phase II funding and efforts to prevent marginalization of some small businesses out there?</t>
@@ -734,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +811,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,2573 +833,3005 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
       <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
       <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G43" t="s">
+        <v>69</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
       <c r="H57" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G58" t="s">
+        <v>69</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>88</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
       <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G74" t="s">
+        <v>104</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
       <c r="H80" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>104</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G84" t="s">
+        <v>104</v>
+      </c>
       <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G87" t="s">
+        <v>120</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G89" t="s">
+        <v>120</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G91" t="s">
+        <v>120</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G93" t="s">
+        <v>120</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G95" t="s">
+        <v>120</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G96" t="s">
+        <v>132</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G98" t="s">
+        <v>132</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>110</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G100" t="s">
+        <v>132</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G102" t="s">
+        <v>132</v>
+      </c>
       <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>132</v>
+      </c>
       <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G106" t="s">
+        <v>132</v>
+      </c>
       <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>110</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G108" t="s">
+        <v>132</v>
+      </c>
       <c r="H108" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="I108" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20913.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20913.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lipinski</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
   </si>
   <si>
     <t>412610</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Westerman</t>
@@ -803,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +823,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,3002 +848,3220 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>52</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>29</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G72" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>29</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>32</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" t="s">
-        <v>27</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>33</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>36</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G87" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G89" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G91" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G93" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" t="s">
-        <v>27</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G95" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>29</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>32</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G98" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>32</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G100" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G102" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>29</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>32</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>31</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>34</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G106" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>36</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G108" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I108" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="J108" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
